--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H2">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N2">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q2">
-        <v>67.805871142632</v>
+        <v>48.6903780132</v>
       </c>
       <c r="R2">
-        <v>610.252840283688</v>
+        <v>438.2134021187999</v>
       </c>
       <c r="S2">
-        <v>0.002259942661022349</v>
+        <v>0.0008604061890497825</v>
       </c>
       <c r="T2">
-        <v>0.002259942661022349</v>
+        <v>0.0008604061890497825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H3">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q3">
-        <v>23.090066231456</v>
+        <v>20.10078660348</v>
       </c>
       <c r="R3">
-        <v>207.810596083104</v>
+        <v>180.90707943132</v>
       </c>
       <c r="S3">
-        <v>0.0007695827049037071</v>
+        <v>0.0003552003887444559</v>
       </c>
       <c r="T3">
-        <v>0.0007695827049037071</v>
+        <v>0.0003552003887444559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H4">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N4">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q4">
-        <v>3935.191090715771</v>
+        <v>13360.21456547382</v>
       </c>
       <c r="R4">
-        <v>35416.71981644193</v>
+        <v>120241.9310892644</v>
       </c>
       <c r="S4">
-        <v>0.131158350675508</v>
+        <v>0.2360879452620057</v>
       </c>
       <c r="T4">
-        <v>0.131158350675508</v>
+        <v>0.2360879452620057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H5">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I5">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J5">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N5">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q5">
-        <v>72.25051355896268</v>
+        <v>84.19086335781</v>
       </c>
       <c r="R5">
-        <v>650.254622030664</v>
+        <v>757.7177702202899</v>
       </c>
       <c r="S5">
-        <v>0.002408080821337787</v>
+        <v>0.00148773418589739</v>
       </c>
       <c r="T5">
-        <v>0.002408080821337787</v>
+        <v>0.00148773418589739</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H6">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I6">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J6">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N6">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q6">
-        <v>9011.468283280215</v>
+        <v>9391.23588372321</v>
       </c>
       <c r="R6">
-        <v>81103.21454952193</v>
+        <v>84521.12295350888</v>
       </c>
       <c r="S6">
-        <v>0.3003486463435512</v>
+        <v>0.1659522436854215</v>
       </c>
       <c r="T6">
-        <v>0.3003486463435512</v>
+        <v>0.1659522436854214</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>210.785085</v>
       </c>
       <c r="H7">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N7">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q7">
-        <v>85.120708520295</v>
+        <v>70.21391704739999</v>
       </c>
       <c r="R7">
-        <v>766.0863766826551</v>
+        <v>631.9252534266</v>
       </c>
       <c r="S7">
-        <v>0.002837039289957806</v>
+        <v>0.001240747992727292</v>
       </c>
       <c r="T7">
-        <v>0.002837039289957806</v>
+        <v>0.001240747992727292</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>210.785085</v>
       </c>
       <c r="H8">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I8">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J8">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q8">
         <v>28.98632174886</v>
@@ -948,10 +948,10 @@
         <v>260.87689573974</v>
       </c>
       <c r="S8">
-        <v>0.0009661025513346996</v>
+        <v>0.0005122164100625015</v>
       </c>
       <c r="T8">
-        <v>0.0009661025513346996</v>
+        <v>0.0005122164100625015</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>210.785085</v>
       </c>
       <c r="H9">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I9">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J9">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N9">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q9">
-        <v>4940.07743223099</v>
+        <v>19266.08573425599</v>
       </c>
       <c r="R9">
-        <v>44460.69689007891</v>
+        <v>173394.7716083039</v>
       </c>
       <c r="S9">
-        <v>0.1646508119388081</v>
+        <v>0.3404504150701733</v>
       </c>
       <c r="T9">
-        <v>0.1646508119388081</v>
+        <v>0.3404504150701733</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>210.785085</v>
       </c>
       <c r="H10">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I10">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J10">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N10">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q10">
-        <v>90.70033024363501</v>
+        <v>121.407360903045</v>
       </c>
       <c r="R10">
-        <v>816.3029721927151</v>
+        <v>1092.666248127405</v>
       </c>
       <c r="S10">
-        <v>0.003023005858227659</v>
+        <v>0.002145385782153128</v>
       </c>
       <c r="T10">
-        <v>0.003023005858227659</v>
+        <v>0.002145385782153127</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>210.785085</v>
       </c>
       <c r="H11">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I11">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J11">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N11">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q11">
-        <v>11312.6275373328</v>
+        <v>13542.62349603334</v>
       </c>
       <c r="R11">
-        <v>101813.6478359952</v>
+        <v>121883.6114643001</v>
       </c>
       <c r="S11">
-        <v>0.377045367149636</v>
+        <v>0.2393112879263165</v>
       </c>
       <c r="T11">
-        <v>0.377045367149636</v>
+        <v>0.2393112879263165</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H12">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I12">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J12">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N12">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q12">
-        <v>0.019134534741</v>
+        <v>0.1830400036577778</v>
       </c>
       <c r="R12">
-        <v>0.172210812669</v>
+        <v>1.64736003292</v>
       </c>
       <c r="S12">
-        <v>6.37746416811563E-07</v>
+        <v>3.23449433783717E-06</v>
       </c>
       <c r="T12">
-        <v>6.37746416811563E-07</v>
+        <v>3.23449433783717E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H13">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I13">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J13">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q13">
-        <v>0.006515920628</v>
+        <v>0.07556417106533334</v>
       </c>
       <c r="R13">
-        <v>0.05864328565199999</v>
+        <v>0.6800775395880001</v>
       </c>
       <c r="S13">
-        <v>2.171730375984243E-07</v>
+        <v>1.335292168760806E-06</v>
       </c>
       <c r="T13">
-        <v>2.171730375984243E-07</v>
+        <v>1.335292168760806E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H14">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I14">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J14">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N14">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q14">
-        <v>1.110494554068667</v>
+        <v>50.22457870978244</v>
       </c>
       <c r="R14">
-        <v>9.994450986617998</v>
+        <v>452.021208388042</v>
       </c>
       <c r="S14">
-        <v>3.701234089734832E-05</v>
+        <v>0.0008875170028994135</v>
       </c>
       <c r="T14">
-        <v>3.701234089734832E-05</v>
+        <v>0.0008875170028994135</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H15">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I15">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J15">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N15">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q15">
-        <v>0.02038879433966667</v>
+        <v>0.3164957136456667</v>
       </c>
       <c r="R15">
-        <v>0.183499149057</v>
+        <v>2.848461422811</v>
       </c>
       <c r="S15">
-        <v>6.795503893475251E-07</v>
+        <v>5.592786130241885E-06</v>
       </c>
       <c r="T15">
-        <v>6.795503893475251E-07</v>
+        <v>5.592786130241884E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H16">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I16">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J16">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N16">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q16">
-        <v>2.542998858773334</v>
+        <v>35.30413853106122</v>
       </c>
       <c r="R16">
-        <v>22.88698972896</v>
+        <v>317.737246779551</v>
       </c>
       <c r="S16">
-        <v>8.47571384457833E-05</v>
+        <v>0.0006238583582768869</v>
       </c>
       <c r="T16">
-        <v>8.47571384457833E-05</v>
+        <v>0.0006238583582768868</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H17">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I17">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J17">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N17">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q17">
-        <v>2.184360009396</v>
+        <v>1.135908390026666</v>
       </c>
       <c r="R17">
-        <v>19.659240084564</v>
+        <v>10.22317551024</v>
       </c>
       <c r="S17">
-        <v>7.280384853224641E-05</v>
+        <v>2.007260261375584E-05</v>
       </c>
       <c r="T17">
-        <v>7.280384853224642E-05</v>
+        <v>2.007260261375584E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H18">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I18">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J18">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.412548</v>
       </c>
       <c r="O18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q18">
-        <v>0.7438443963679999</v>
+        <v>0.468935610704</v>
       </c>
       <c r="R18">
-        <v>6.694599567311998</v>
+        <v>4.220420496336</v>
       </c>
       <c r="S18">
-        <v>2.479203727031723E-05</v>
+        <v>8.286546915001946E-06</v>
       </c>
       <c r="T18">
-        <v>2.479203727031724E-05</v>
+        <v>8.286546915001946E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H19">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I19">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J19">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N19">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q19">
-        <v>126.7718252569786</v>
+        <v>311.6833435420027</v>
       </c>
       <c r="R19">
-        <v>1140.946427312808</v>
+        <v>2805.150091878024</v>
       </c>
       <c r="S19">
-        <v>0.004225254410658039</v>
+        <v>0.005507746884498749</v>
       </c>
       <c r="T19">
-        <v>0.004225254410658039</v>
+        <v>0.005507746884498749</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H20">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I20">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J20">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N20">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q20">
-        <v>2.327543763054666</v>
+        <v>1.964106912988</v>
       </c>
       <c r="R20">
-        <v>20.947893867492</v>
+        <v>17.676962216892</v>
       </c>
       <c r="S20">
-        <v>7.757610597552679E-05</v>
+        <v>3.470767352498674E-05</v>
       </c>
       <c r="T20">
-        <v>7.757610597552679E-05</v>
+        <v>3.470767352498673E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H21">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I21">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J21">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N21">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q21">
-        <v>290.3036361339733</v>
+        <v>219.0901789702413</v>
       </c>
       <c r="R21">
-        <v>2612.73272520576</v>
+        <v>1971.811610732172</v>
       </c>
       <c r="S21">
-        <v>0.009675704491267581</v>
+        <v>0.003871535889388985</v>
       </c>
       <c r="T21">
-        <v>0.009675704491267582</v>
+        <v>0.003871535889388985</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H22">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I22">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J22">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N22">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q22">
-        <v>0.051774121234</v>
+        <v>0.07609288829333334</v>
       </c>
       <c r="R22">
-        <v>0.465967091106</v>
+        <v>0.6848359946400001</v>
       </c>
       <c r="S22">
-        <v>1.725610826052693E-06</v>
+        <v>1.344635114816906E-06</v>
       </c>
       <c r="T22">
-        <v>1.725610826052693E-06</v>
+        <v>1.344635114816906E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H23">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I23">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J23">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.412548</v>
       </c>
       <c r="O23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q23">
-        <v>0.01763074300533333</v>
+        <v>0.031413329944</v>
       </c>
       <c r="R23">
-        <v>0.158676687048</v>
+        <v>0.282719969496</v>
       </c>
       <c r="S23">
-        <v>5.876256376009085E-07</v>
+        <v>5.551039980661701E-07</v>
       </c>
       <c r="T23">
-        <v>5.876256376009086E-07</v>
+        <v>5.551039980661701E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H24">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I24">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J24">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N24">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q24">
-        <v>3.004770194325777</v>
+        <v>20.87922410932934</v>
       </c>
       <c r="R24">
-        <v>27.042931748932</v>
+        <v>187.913016983964</v>
       </c>
       <c r="S24">
-        <v>0.000100147793019884</v>
+        <v>0.0003689561342356836</v>
       </c>
       <c r="T24">
-        <v>0.000100147793019884</v>
+        <v>0.0003689561342356836</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H25">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I25">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J25">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N25">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q25">
-        <v>0.05516789011311111</v>
+        <v>0.131572730018</v>
       </c>
       <c r="R25">
-        <v>0.496511011018</v>
+        <v>1.184154570162</v>
       </c>
       <c r="S25">
-        <v>1.838723790200291E-06</v>
+        <v>2.325017710623916E-06</v>
       </c>
       <c r="T25">
-        <v>1.838723790200291E-06</v>
+        <v>2.325017710623916E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H26">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I26">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J26">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N26">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q26">
-        <v>6.880832640782223</v>
+        <v>14.67653964080467</v>
       </c>
       <c r="R26">
-        <v>61.92749376704001</v>
+        <v>132.088856767242</v>
       </c>
       <c r="S26">
-        <v>0.0002293354095480647</v>
+        <v>0.0002593486856347554</v>
       </c>
       <c r="T26">
-        <v>0.0002293354095480647</v>
+        <v>0.0002593486856347553</v>
       </c>
     </row>
   </sheetData>
